--- a/Data Structures/hash_table/hash_lockless.xlsx
+++ b/Data Structures/hash_table/hash_lockless.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710"/>
+    <workbookView xWindow="240" yWindow="525" windowWidth="14805" windowHeight="7590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="94">
   <si>
     <t>cycles</t>
   </si>
@@ -293,6 +293,15 @@
   <si>
     <t xml:space="preserve"> Lockless hash table initial table size 134217728 (2^27) WITH RESIZE</t>
   </si>
+  <si>
+    <t>Stoker (32 Core) Lockless</t>
+  </si>
+  <si>
+    <t>Local (4 Core) Lockless</t>
+  </si>
+  <si>
+    <t>Cube (16 Core) Lockless</t>
+  </si>
 </sst>
 </file>
 
@@ -461,28 +470,28 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5605060</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5659008</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>147335</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>57921</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>54117</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47321</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>46176</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50372</c:v>
+                  <c:v>4875611</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9367068</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4845830</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4082338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>901883</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1147135</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>322019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -542,6 +551,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7012559</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7041295</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9211708</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2981928</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3137980</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1628882</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2155367</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3416986</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -600,6 +633,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6715867</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6752067</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6628642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5760092</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3979916</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2310354</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3151047</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2543759</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -658,6 +715,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5150153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9554272</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4918471</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5050444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1873</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2474</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -716,6 +797,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4423642</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7162218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6104523</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4812114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4801184</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4377133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2666000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3606243</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -774,6 +879,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7007817</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7010131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3870721</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3399176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2882557</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>660447</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>181497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>121260</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -832,6 +961,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6045592</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7722115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6879048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4191779</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>984649</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3629856</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>571851</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>280193</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -890,6 +1043,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3792016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3862107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3535477</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3497475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1805405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1820880</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1959143</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1758261</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -948,6 +1125,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4650760</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2541169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2387780</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>728456</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>431363</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>332129</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1006,6 +1207,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6725881</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9519390</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6758831</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9016384</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5456403</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1131220</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>974678</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2303453</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1064,6 +1289,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6688723</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9590053</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5769902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>472257</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>528192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>376520</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>318706</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1122,6 +1371,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6149391</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3781498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3485778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5253897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>698959</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>353006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125211</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1137,11 +1410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102429440"/>
-        <c:axId val="102431360"/>
+        <c:axId val="99943168"/>
+        <c:axId val="99945088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102429440"/>
+        <c:axId val="99943168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1170,7 +1443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102431360"/>
+        <c:crossAx val="99945088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1178,7 +1451,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102431360"/>
+        <c:axId val="99945088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1208,7 +1481,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102429440"/>
+        <c:crossAx val="99943168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1301,6 +1574,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6045592</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7722115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6879048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4191779</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>984649</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3629856</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>571851</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>280193</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1326,6 +1623,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5259103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>466787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5710641</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>266389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>327867</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3420209</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3250559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3791936</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1351,6 +1672,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6656917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9002881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9632725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7810362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6012249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2923021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>962741</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1070428</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1366,11 +1711,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103680640"/>
-        <c:axId val="103715584"/>
+        <c:axId val="112949888"/>
+        <c:axId val="112960256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103680640"/>
+        <c:axId val="112949888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1398,7 +1743,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103715584"/>
+        <c:crossAx val="112960256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1406,7 +1751,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103715584"/>
+        <c:axId val="112960256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1435,7 +1780,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103680640"/>
+        <c:crossAx val="112949888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1527,6 +1872,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3792016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3862107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3535477</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3497475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1805405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1820880</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1959143</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1758261</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1552,6 +1921,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5245638</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5511826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>203922</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5578845</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5613795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5666864</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5392578</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5609282</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1577,6 +1970,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6579167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9375598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3912551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3748765</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4614069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3336465</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3289507</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3254236</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1592,11 +2009,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103742080"/>
-        <c:axId val="103809792"/>
+        <c:axId val="112994944"/>
+        <c:axId val="112997120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103742080"/>
+        <c:axId val="112994944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1624,7 +2041,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103809792"/>
+        <c:crossAx val="112997120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1632,7 +2049,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103809792"/>
+        <c:axId val="112997120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1661,7 +2078,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103742080"/>
+        <c:crossAx val="112994944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1749,6 +2166,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7012559</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7041295</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9211708</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2981928</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3137980</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1628882</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2155367</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3416986</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1774,6 +2215,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6715867</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6752067</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6628642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5760092</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3979916</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2310354</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3151047</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2543759</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1799,6 +2264,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6725881</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9519390</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6758831</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9016384</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5456403</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1131220</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>974678</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2303453</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1824,6 +2313,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5195789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>422011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5430192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>269770</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8571168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5393356</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5257174</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5275323</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1849,6 +2362,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5222770</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>435130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5285261</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5293489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>882320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>968783</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5917385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>532409</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1874,6 +2411,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5247374</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>411682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5232432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5313624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>328877</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>901229</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5624799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5671876</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1899,6 +2460,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6721549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9142805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3657088</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4099466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4034462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4085858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4640774</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3704649</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1924,6 +2509,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6644983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9349169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4837665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4032198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3250171</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3648672</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1949,6 +2558,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6625124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6621240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5667697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8987555</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3144250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3302377</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3737248</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1964,11 +2597,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103869824"/>
-        <c:axId val="104076800"/>
+        <c:axId val="106368384"/>
+        <c:axId val="106370560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103869824"/>
+        <c:axId val="106368384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,7 +2630,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104076800"/>
+        <c:crossAx val="106370560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2005,7 +2638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104076800"/>
+        <c:axId val="106370560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2035,7 +2668,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103869824"/>
+        <c:crossAx val="106368384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2121,6 +2754,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4423642</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7162218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6104523</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4812114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4801184</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4377133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2666000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3606243</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2146,6 +2803,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7007817</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7010131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3870721</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3399176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2882557</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>660447</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>181497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>121260</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2171,6 +2852,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6045592</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7722115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6879048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4191779</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>984649</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3629856</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>571851</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>280193</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2196,6 +2901,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3792016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3862107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3535477</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3497475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1805405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1820880</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1959143</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1758261</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2221,6 +2950,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4650760</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2541169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2387780</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>728456</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>431363</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>332129</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2246,6 +2999,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6149391</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3781498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3485778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5253897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>698959</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>353006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125211</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2261,11 +3038,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104122240"/>
-        <c:axId val="104136704"/>
+        <c:axId val="106411904"/>
+        <c:axId val="106418176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104122240"/>
+        <c:axId val="106411904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2294,7 +3071,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104136704"/>
+        <c:crossAx val="106418176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2302,7 +3079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104136704"/>
+        <c:axId val="106418176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2332,7 +3109,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104122240"/>
+        <c:crossAx val="106411904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2417,6 +3194,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5251684</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>440490</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5733055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>268263</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>325005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3809848</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3539978</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2616898</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2442,6 +3243,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5259103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>466787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5710641</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>266389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>327867</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3420209</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3250559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3791936</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2467,6 +3292,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5245638</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5511826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>203922</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5578845</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5613795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5666864</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5392578</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5609282</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2492,6 +3341,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5222893</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5701141</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>206432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>265261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4698904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4115696</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3662885</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4534354</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2517,6 +3390,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5230014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>441885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>475096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>452690</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5784608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10949777</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2968397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2491745</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2532,11 +3429,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104164736"/>
-        <c:axId val="104171008"/>
+        <c:axId val="106515840"/>
+        <c:axId val="106530304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104164736"/>
+        <c:axId val="106515840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2564,7 +3461,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104171008"/>
+        <c:crossAx val="106530304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2572,7 +3469,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104171008"/>
+        <c:axId val="106530304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2601,7 +3498,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104164736"/>
+        <c:crossAx val="106515840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2685,6 +3582,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6635086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6071830</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5037102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5999060</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4259821</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4014429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3984903</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2710,6 +3631,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6652441</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6722470</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6555153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4112756</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5219077</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6324828</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>802870</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>774152</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2735,6 +3680,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6656917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9002881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9632725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7810362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6012249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2923021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>962741</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1070428</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2760,6 +3729,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6579167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9375598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3912551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3748765</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4614069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3336465</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3289507</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3254236</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2785,6 +3778,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6645439</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6643010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5774060</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3580392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4279751</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1097226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1840131</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>947083</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2810,6 +3827,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6594579</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6369565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7150808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1182672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3102419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2798104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>716814</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>812753</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2825,11 +3866,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113321856"/>
-        <c:axId val="113328128"/>
+        <c:axId val="106567552"/>
+        <c:axId val="106586112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113321856"/>
+        <c:axId val="106567552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2857,7 +3898,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113328128"/>
+        <c:crossAx val="106586112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2865,7 +3906,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113328128"/>
+        <c:axId val="106586112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2894,7 +3935,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113321856"/>
+        <c:crossAx val="106567552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2963,7 +4004,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker (32 Core) 128</c:v>
+                  <c:v>Stoker (32 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3045,7 +4086,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local 128</c:v>
+                  <c:v>Local (4 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3127,7 +4168,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube 128</c:v>
+                  <c:v>Cube (16 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3171,6 +4212,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6540083</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8596275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9282620</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1802632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1754216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2182642</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2139172</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1652900</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3186,11 +4251,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113354624"/>
-        <c:axId val="113364992"/>
+        <c:axId val="106616704"/>
+        <c:axId val="113377280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113354624"/>
+        <c:axId val="106616704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3219,7 +4284,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113364992"/>
+        <c:crossAx val="113377280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3227,7 +4292,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113364992"/>
+        <c:axId val="113377280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3257,7 +4322,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113354624"/>
+        <c:crossAx val="106616704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3327,7 +4392,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker (32 Core) 131072 </c:v>
+                  <c:v>Stoker (32 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3385,7 +4450,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local 131072 </c:v>
+                  <c:v>Local (4 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3467,7 +4532,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube 131072 </c:v>
+                  <c:v>Cube (16 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3550,11 +4615,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104298368"/>
-        <c:axId val="104308736"/>
+        <c:axId val="113403776"/>
+        <c:axId val="113414144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104298368"/>
+        <c:axId val="113403776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3583,7 +4648,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104308736"/>
+        <c:crossAx val="113414144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3591,7 +4656,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104308736"/>
+        <c:axId val="113414144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3621,7 +4686,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104298368"/>
+        <c:crossAx val="113403776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3691,7 +4756,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker (32 Core) 134217728</c:v>
+                  <c:v>Stoker (32 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3773,7 +4838,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local 134217728</c:v>
+                  <c:v>Local (4 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3834,7 +4899,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube 134217728</c:v>
+                  <c:v>Cube (16 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3878,6 +4943,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5036935</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3095347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3518946</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3060646</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3467802</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3138183</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3557732</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>4168311</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3893,11 +4982,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113387392"/>
-        <c:axId val="113401856"/>
+        <c:axId val="113457024"/>
+        <c:axId val="113463296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113387392"/>
+        <c:axId val="113457024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3926,7 +5015,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113401856"/>
+        <c:crossAx val="113463296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3934,7 +5023,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113401856"/>
+        <c:axId val="113463296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3964,7 +5053,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113387392"/>
+        <c:crossAx val="113457024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4034,7 +5123,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker (32 Core) 128</c:v>
+                  <c:v>Stoker (32 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4116,7 +5205,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local 128</c:v>
+                  <c:v>Local (4 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4198,7 +5287,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube 128</c:v>
+                  <c:v>Cube (16 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4242,6 +5331,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6540083</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8596275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9282620</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1802632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1754216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2182642</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2139172</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1652900</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4256,7 +5369,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker (32 Core) 131072 </c:v>
+                  <c:v>Stoker (32 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4314,7 +5427,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local 131072 </c:v>
+                  <c:v>Local (4 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4396,7 +5509,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube 131072 </c:v>
+                  <c:v>Cube (16 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4478,7 +5591,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker (32 Core) 134217728</c:v>
+                  <c:v>Stoker (32 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4560,7 +5673,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local 134217728</c:v>
+                  <c:v>Local (4 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4621,7 +5734,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube 134217728</c:v>
+                  <c:v>Cube (16 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4665,6 +5778,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5036935</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3095347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3518946</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3060646</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3467802</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3138183</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3557732</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>4168311</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4680,11 +5817,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113126016"/>
-        <c:axId val="113140480"/>
+        <c:axId val="113183360"/>
+        <c:axId val="113193728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113126016"/>
+        <c:axId val="113183360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4713,7 +5850,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113140480"/>
+        <c:crossAx val="113193728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4721,7 +5858,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113140480"/>
+        <c:axId val="113193728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4751,7 +5888,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113126016"/>
+        <c:crossAx val="113183360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4864,6 +6001,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6654740</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6482534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8283099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4603674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1302441</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>390624</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250676</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>164200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4922,6 +6083,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6721549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9142805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3657088</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4099466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4034462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4085858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4640774</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3704649</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4980,6 +6165,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6644983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9349169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4837665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4032198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3250171</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3648672</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5038,6 +6247,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6619330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>207118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5394062</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4904156</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4211687</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3106720</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>776818</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5096,6 +6329,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6635086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6071830</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5037102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5999060</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4259821</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4014429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3984903</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5154,6 +6411,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6652441</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6722470</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6555153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4112756</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5219077</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6324828</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>802870</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>774152</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5212,6 +6493,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6656917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9002881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9632725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7810362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6012249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2923021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>962741</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1070428</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5270,6 +6575,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6579167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9375598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3912551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3748765</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4614069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3336465</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3289507</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3254236</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5328,6 +6657,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6645439</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6643010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5774060</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3580392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4279751</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1097226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1840131</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>947083</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5386,6 +6739,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6625124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6621240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5667697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8987555</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3144250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3302377</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3737248</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5444,6 +6821,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6571878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6424347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5281711</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2677151</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1022400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11716</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5502,6 +6903,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6594579</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6369565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7150808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1182672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3102419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2798104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>716814</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>812753</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5517,11 +6942,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102051840"/>
-        <c:axId val="102053760"/>
+        <c:axId val="101658624"/>
+        <c:axId val="101660544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102051840"/>
+        <c:axId val="101658624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5549,7 +6974,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102053760"/>
+        <c:crossAx val="101660544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5557,7 +6982,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102053760"/>
+        <c:axId val="101660544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5586,7 +7011,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102051840"/>
+        <c:crossAx val="101658624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5707,28 +7132,28 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5605060</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5659008</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>147335</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>57921</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>54117</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47321</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>46176</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50372</c:v>
+                  <c:v>4875611</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9367068</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4845830</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4082338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>901883</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1147135</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>322019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5788,6 +7213,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7012559</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7041295</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9211708</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2981928</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3137980</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1628882</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2155367</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3416986</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5846,6 +7295,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6715867</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6752067</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6628642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5760092</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3979916</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2310354</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3151047</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2543759</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5904,6 +7377,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5150153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9554272</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4918471</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5050444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1873</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2474</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5962,6 +7459,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4423642</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7162218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6104523</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4812114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4801184</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4377133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2666000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3606243</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6020,6 +7541,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7007817</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7010131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3870721</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3399176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2882557</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>660447</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>181497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>121260</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6078,6 +7623,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6045592</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7722115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6879048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4191779</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>984649</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3629856</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>571851</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>280193</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6136,6 +7705,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3792016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3862107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3535477</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3497475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1805405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1820880</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1959143</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1758261</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6150,7 +7743,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker (32 Core) 128</c:v>
+                  <c:v>Stoker (32 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6232,7 +7825,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker (32 Core) 131072 </c:v>
+                  <c:v>Stoker (32 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6290,7 +7883,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stoker (32 Core) 134217728</c:v>
+                  <c:v>Stoker (32 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6373,11 +7966,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113198976"/>
-        <c:axId val="113205248"/>
+        <c:axId val="113264512"/>
+        <c:axId val="113274880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113198976"/>
+        <c:axId val="113264512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6406,7 +7999,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113205248"/>
+        <c:crossAx val="113274880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6414,7 +8007,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113205248"/>
+        <c:axId val="113274880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6444,7 +8037,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113198976"/>
+        <c:crossAx val="113264512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6573,6 +8166,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3602641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199744</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>205712</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>275634</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>327633</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2139</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6631,6 +8248,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5195789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>422011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5430192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>269770</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8571168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5393356</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5257174</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5275323</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6689,6 +8330,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5222770</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>435130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5285261</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5293489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>882320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>968783</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5917385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>532409</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6747,6 +8412,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5214815</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>477470</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>461308</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6500141</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>364991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>392194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>404568</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6805,6 +8494,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5251684</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>440490</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5733055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>268263</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>325005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3809848</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3539978</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2616898</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6924,6 +8637,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5259103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>466787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5710641</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>266389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>327867</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3420209</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3250559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3791936</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6982,6 +8719,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5245638</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5511826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>203922</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5578845</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5613795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5666864</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5392578</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5609282</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6996,7 +8757,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local 128</c:v>
+                  <c:v>Local (4 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7078,7 +8839,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local 131072 </c:v>
+                  <c:v>Local (4 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7160,7 +8921,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Local 134217728</c:v>
+                  <c:v>Local (4 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7222,11 +8983,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113275264"/>
-        <c:axId val="113277184"/>
+        <c:axId val="113344896"/>
+        <c:axId val="113346816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113275264"/>
+        <c:axId val="113344896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7255,7 +9016,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113277184"/>
+        <c:crossAx val="113346816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7263,7 +9024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113277184"/>
+        <c:axId val="113346816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7293,7 +9054,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113275264"/>
+        <c:crossAx val="113344896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7414,6 +9175,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6654740</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6482534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8283099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4603674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1302441</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>390624</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250676</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>164200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7472,6 +9257,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6721549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9142805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3657088</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4099466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4034462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4085858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4640774</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3704649</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7530,6 +9339,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6644983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9349169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4837665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4032198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3250171</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3648672</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7588,6 +9421,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6619330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>207118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5394062</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4904156</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4211687</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3106720</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>776818</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7646,6 +9503,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6635086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6071830</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5037102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5999060</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4259821</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4014429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3984903</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7704,6 +9585,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6652441</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6722470</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6555153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4112756</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5219077</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6324828</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>802870</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>774152</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7762,6 +9667,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6656917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9002881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9632725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7810362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6012249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2923021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>962741</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1070428</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7820,6 +9749,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6579167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9375598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3912551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3748765</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4614069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3336465</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3289507</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3254236</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7834,7 +9787,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube 128</c:v>
+                  <c:v>Cube (16 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7878,6 +9831,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6540083</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8596275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9282620</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1802632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1754216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2182642</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2139172</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1652900</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7892,7 +9869,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube 131072 </c:v>
+                  <c:v>Cube (16 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7974,7 +9951,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cube 134217728</c:v>
+                  <c:v>Cube (16 Core) Lockless</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8018,6 +9995,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5036935</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3095347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3518946</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3060646</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3467802</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3138183</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3557732</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>4168311</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8033,11 +10034,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113797760"/>
-        <c:axId val="113816320"/>
+        <c:axId val="113793664"/>
+        <c:axId val="113804032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113797760"/>
+        <c:axId val="113793664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8065,7 +10066,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113816320"/>
+        <c:crossAx val="113804032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8073,7 +10074,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113816320"/>
+        <c:axId val="113804032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8102,7 +10103,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113797760"/>
+        <c:crossAx val="113793664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8229,6 +10230,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4650760</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2541169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2387780</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>728456</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>431363</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>332129</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8287,6 +10312,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5222893</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5701141</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>206432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>265261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4698904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4115696</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3662885</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4534354</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8345,6 +10394,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6645439</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6643010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5774060</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3580392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4279751</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1097226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1840131</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>947083</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8360,11 +10433,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113977984"/>
-        <c:axId val="113988352"/>
+        <c:axId val="113834624"/>
+        <c:axId val="113578752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113977984"/>
+        <c:axId val="113834624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8392,7 +10465,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113988352"/>
+        <c:crossAx val="113578752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8400,7 +10473,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113988352"/>
+        <c:axId val="113578752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8429,7 +10502,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113977984"/>
+        <c:crossAx val="113834624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8546,6 +10619,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6725881</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9519390</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6758831</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9016384</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5456403</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1131220</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>974678</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2303453</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8604,6 +10701,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5247374</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>411682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5232432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5313624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>328877</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>901229</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5624799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5671876</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8662,6 +10783,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6625124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6621240</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5667697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8987555</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3144250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3302377</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3737248</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8677,11 +10822,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114006272"/>
-        <c:axId val="114016640"/>
+        <c:axId val="113600768"/>
+        <c:axId val="113607040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114006272"/>
+        <c:axId val="113600768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8709,7 +10854,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114016640"/>
+        <c:crossAx val="113607040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8717,7 +10862,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114016640"/>
+        <c:axId val="113607040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8746,7 +10891,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114006272"/>
+        <c:crossAx val="113600768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8863,6 +11008,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6688723</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9590053</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5769902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>472257</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>528192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>376520</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>318706</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8921,6 +11090,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5231211</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>471227</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6540450</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6787804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4883301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>668393</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1541793</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8979,6 +11172,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6571878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6424347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5281711</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2677151</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1022400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11716</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8994,11 +11211,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113531136"/>
-        <c:axId val="113537408"/>
+        <c:axId val="114174208"/>
+        <c:axId val="114184576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113531136"/>
+        <c:axId val="114174208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9026,7 +11243,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113537408"/>
+        <c:crossAx val="114184576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9034,7 +11251,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113537408"/>
+        <c:axId val="114184576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9063,7 +11280,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113531136"/>
+        <c:crossAx val="114174208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9180,6 +11397,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6149391</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3781498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3485778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5253897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>698959</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>353006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125211</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9238,6 +11479,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5230014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>441885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>475096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>452690</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5784608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10949777</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2968397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2491745</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9296,6 +11561,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6594579</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6369565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7150808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1182672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3102419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2798104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>716814</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>812753</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9311,11 +11600,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="113572096"/>
-        <c:axId val="113582464"/>
+        <c:axId val="114215168"/>
+        <c:axId val="114098560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="113572096"/>
+        <c:axId val="114215168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9343,7 +11632,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113582464"/>
+        <c:crossAx val="114098560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9351,7 +11640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113582464"/>
+        <c:axId val="114098560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9380,13 +11669,1738 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113572096"/>
+        <c:crossAx val="114215168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-IE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4875611</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9367068</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4845830</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4082338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>901883</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1147135</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>322019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) Ticket</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5150153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9554272</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4918471</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5050444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1873</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2474</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TAS No Pause</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7007817</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7010131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3870721</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3399176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2882557</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>660447</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>181497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>121260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TTAS No Pause</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6045592</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7722115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6879048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4191779</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>984649</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3629856</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>571851</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>280193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TTAS_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4650760</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2541169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2387780</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>728456</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>431363</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>332129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TICKET_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6688723</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9590053</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5769902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>472257</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>528192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>376520</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>318706</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) TAS_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6149391</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3781498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3485778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5253897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>698959</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>353006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>125211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Local Machine (4 Core)  Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3602641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199744</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>205712</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>275634</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>327633</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Local Machine (4 Core)  Ticket</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5214815</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>477470</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>461308</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6500141</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>364991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>392194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>404568</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Local Machine (4 Core)  TICKET_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$27:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5231211</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>471227</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6540450</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6787804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4883301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>668393</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1541793</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="25"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) Locked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$29:$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6654740</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6482534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8283099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4603674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1302441</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>390624</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250676</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>164200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="28"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) Ticket</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$32:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6619330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>207118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5394062</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4904156</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4211687</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3106720</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>776818</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="30"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) TAS No Pause</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$34:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6652441</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6722470</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6555153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4112756</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5219077</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6324828</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>802870</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>774152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="32"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) TTAS No Pause</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$35:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6656917</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9002881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9632725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7810362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6012249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2923021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>962741</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1070428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="34"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) TTAS_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$37:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6645439</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6643010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5774060</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3580392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4279751</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1097226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1840131</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>947083</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="36"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) TICKET_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$39:$I$39</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6571878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6424347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5281711</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2677151</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1022400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="37"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) TAS_RELAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$40:$I$40</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6594579</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6369565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7150808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1182672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3102419</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2798104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>716814</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>812753</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stoker (32 Core) Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$85:$I$85</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5501685</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8139758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5504305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7404882</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>565319</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1316140</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1408151</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1020488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="31"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Local (4 Core) Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$86:$I$86</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12235323</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10123754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>583871</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16689</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16749</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16751</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="38"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$87</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cube (16 Core) Lockless</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$87:$I$87</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6540083</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8596275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9282620</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1802632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1754216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2182642</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2139172</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>1652900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="50131712"/>
+        <c:axId val="50133248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50131712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50133248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50133248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50131712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9501,6 +13515,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3602641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199744</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>205712</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>275634</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>327633</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2139</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9559,6 +13597,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5195789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>422011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5430192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>269770</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8571168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5393356</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5257174</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5275323</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9617,6 +13679,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5222770</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>435130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5285261</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5293489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>882320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>968783</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5917385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>532409</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9675,6 +13761,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5214815</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>477470</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>461308</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6500141</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>364991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>392194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>404568</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9733,6 +13843,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5251684</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>440490</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5733055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>268263</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>325005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3809848</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3539978</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2616898</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9852,6 +13986,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5259103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>466787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5710641</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>266389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>327867</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3420209</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3250559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3791936</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9910,6 +14068,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5245638</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5511826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>203922</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5578845</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5613795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5666864</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5392578</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5609282</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9968,6 +14150,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5222893</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5701141</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>206432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>265261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4698904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4115696</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3662885</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4534354</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10026,6 +14232,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5247374</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>411682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5232432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5313624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>328877</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>901229</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5624799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5671876</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10084,6 +14314,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5231211</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>471227</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6540450</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6787804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4883301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>668393</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1541793</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10142,6 +14396,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5230014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>441885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>475096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>452690</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5784608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10949777</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2968397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2491745</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10157,11 +14435,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102104064"/>
-        <c:axId val="103883904"/>
+        <c:axId val="101387264"/>
+        <c:axId val="101393536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102104064"/>
+        <c:axId val="101387264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10190,7 +14468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103883904"/>
+        <c:crossAx val="101393536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10198,7 +14476,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103883904"/>
+        <c:axId val="101393536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10228,7 +14506,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102104064"/>
+        <c:crossAx val="101387264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10327,28 +14605,28 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5605060</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5659008</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>147335</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>57921</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>54117</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47321</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>46176</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50372</c:v>
+                  <c:v>4875611</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9367068</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4845830</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4082338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>901883</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1147135</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>322019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>144900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10375,6 +14653,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3602641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199744</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>205712</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>275634</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>327633</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2139</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10400,6 +14702,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6654740</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6482534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8283099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4603674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1302441</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>390624</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250676</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>164200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10415,11 +14741,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103926784"/>
-        <c:axId val="103928960"/>
+        <c:axId val="101442304"/>
+        <c:axId val="101444224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103926784"/>
+        <c:axId val="101442304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10448,7 +14774,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103928960"/>
+        <c:crossAx val="101444224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10456,7 +14782,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103928960"/>
+        <c:axId val="101444224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10486,7 +14812,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103926784"/>
+        <c:crossAx val="101442304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10580,6 +14906,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7012559</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7041295</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9211708</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2981928</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3137980</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1628882</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2155367</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3416986</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10605,6 +14955,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5195789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>422011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5430192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>269770</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8571168</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5393356</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5257174</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5275323</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10630,6 +15004,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6721549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9142805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3657088</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4099466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4034462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4085858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4640774</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3704649</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10645,11 +15043,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103961344"/>
-        <c:axId val="103963264"/>
+        <c:axId val="101467264"/>
+        <c:axId val="101469184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103961344"/>
+        <c:axId val="101467264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10678,7 +15076,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103963264"/>
+        <c:crossAx val="101469184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10686,7 +15084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103963264"/>
+        <c:axId val="101469184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10716,7 +15114,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103961344"/>
+        <c:crossAx val="101467264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10809,6 +15207,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6715867</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6752067</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6628642</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5760092</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3979916</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2310354</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3151047</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2543759</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10834,6 +15256,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5222770</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>435130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5285261</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5293489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>882320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>968783</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5917385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>532409</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10859,6 +15305,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6644983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9349169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4837665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4032198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3250171</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3648672</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10874,11 +15344,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104010880"/>
-        <c:axId val="104012800"/>
+        <c:axId val="101590144"/>
+        <c:axId val="101592064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104010880"/>
+        <c:axId val="101590144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10906,7 +15376,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104012800"/>
+        <c:crossAx val="101592064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10914,7 +15384,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104012800"/>
+        <c:axId val="101592064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10943,7 +15413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104010880"/>
+        <c:crossAx val="101590144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11035,6 +15505,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5150153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9554272</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4918471</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5050444</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1873</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2474</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11060,6 +15554,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5214815</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>477470</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>480802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>461308</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6500141</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>364991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>392194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>404568</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11085,6 +15603,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6619330</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>207118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5394062</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4904156</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4211687</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3106720</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>776818</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11100,11 +15642,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104047744"/>
-        <c:axId val="104049664"/>
+        <c:axId val="101618816"/>
+        <c:axId val="101620736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104047744"/>
+        <c:axId val="101618816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11132,7 +15674,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104049664"/>
+        <c:crossAx val="101620736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11140,7 +15682,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104049664"/>
+        <c:axId val="101620736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11169,7 +15711,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104047744"/>
+        <c:crossAx val="101618816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11261,6 +15803,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4423642</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7162218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6104523</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4812114</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4801184</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4377133</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2666000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3606243</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11286,6 +15852,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5251684</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>440490</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5733055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>268263</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>325005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3809848</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3539978</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2616898</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11311,6 +15901,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6635086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6071830</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5037102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5999060</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4259821</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4014429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3984903</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11326,11 +15940,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103748736"/>
-        <c:axId val="103750656"/>
+        <c:axId val="101645696"/>
+        <c:axId val="101860864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103748736"/>
+        <c:axId val="101645696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11358,7 +15972,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103750656"/>
+        <c:crossAx val="101860864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11366,7 +15980,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103750656"/>
+        <c:axId val="101860864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11395,7 +16009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103748736"/>
+        <c:crossAx val="101645696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11487,6 +16101,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7007817</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7010131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3870721</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3399176</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2882557</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>660447</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>181497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>121260</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11540,6 +16178,30 @@
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6652441</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6722470</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6555153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4112756</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5219077</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6324828</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>802870</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>774152</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11555,11 +16217,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="103791616"/>
-        <c:axId val="103797888"/>
+        <c:axId val="101890688"/>
+        <c:axId val="101896960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="103791616"/>
+        <c:axId val="101890688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11587,7 +16249,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103797888"/>
+        <c:crossAx val="101896960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11595,7 +16257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103797888"/>
+        <c:axId val="101896960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11624,7 +16286,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103791616"/>
+        <c:crossAx val="101890688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12473,6 +17135,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12765,8 +17457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O453"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12823,484 +17515,1044 @@
         <v>48</v>
       </c>
       <c r="B5" s="6">
-        <v>5605060</v>
+        <v>4875611</v>
       </c>
       <c r="C5" s="6">
-        <v>5659008</v>
+        <v>9367068</v>
       </c>
       <c r="D5" s="6">
-        <v>147335</v>
+        <v>4845830</v>
       </c>
       <c r="E5" s="6">
-        <v>57921</v>
+        <v>4082338</v>
       </c>
       <c r="F5" s="6">
-        <v>54117</v>
+        <v>901883</v>
       </c>
       <c r="G5" s="6">
-        <v>47321</v>
+        <v>1147135</v>
       </c>
       <c r="H5" s="6">
-        <v>46176</v>
+        <v>322019</v>
       </c>
       <c r="I5" s="6">
-        <v>50372</v>
+        <v>144900</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="B6" s="6">
+        <v>7012559</v>
+      </c>
+      <c r="C6" s="6">
+        <v>7041295</v>
+      </c>
+      <c r="D6" s="6">
+        <v>9211708</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2981928</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3137980</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1628882</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2155367</v>
+      </c>
+      <c r="I6" s="6">
+        <v>3416986</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="B7" s="6">
+        <v>6715867</v>
+      </c>
+      <c r="C7" s="6">
+        <v>6752067</v>
+      </c>
+      <c r="D7" s="6">
+        <v>6628642</v>
+      </c>
+      <c r="E7" s="6">
+        <v>5760092</v>
+      </c>
+      <c r="F7" s="6">
+        <v>3979916</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2310354</v>
+      </c>
+      <c r="H7" s="6">
+        <v>3151047</v>
+      </c>
+      <c r="I7" s="6">
+        <v>2543759</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="B8" s="6">
+        <v>5150153</v>
+      </c>
+      <c r="C8" s="6">
+        <v>9554272</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4918471</v>
+      </c>
+      <c r="E8" s="6">
+        <v>5050444</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1412</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1873</v>
+      </c>
+      <c r="H8" s="6">
+        <v>878</v>
+      </c>
+      <c r="I8" s="6">
+        <v>2474</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="B9" s="6">
+        <v>4423642</v>
+      </c>
+      <c r="C9" s="6">
+        <v>7162218</v>
+      </c>
+      <c r="D9" s="6">
+        <v>6104523</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4812114</v>
+      </c>
+      <c r="F9" s="6">
+        <v>4801184</v>
+      </c>
+      <c r="G9" s="6">
+        <v>4377133</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2666000</v>
+      </c>
+      <c r="I9" s="6">
+        <v>3606243</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="B10" s="6">
+        <v>7007817</v>
+      </c>
+      <c r="C10" s="6">
+        <v>7010131</v>
+      </c>
+      <c r="D10" s="6">
+        <v>3870721</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3399176</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2882557</v>
+      </c>
+      <c r="G10" s="6">
+        <v>660447</v>
+      </c>
+      <c r="H10" s="6">
+        <v>181497</v>
+      </c>
+      <c r="I10" s="6">
+        <v>121260</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="B11" s="6">
+        <v>6045592</v>
+      </c>
+      <c r="C11" s="6">
+        <v>7722115</v>
+      </c>
+      <c r="D11" s="6">
+        <v>6879048</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4191779</v>
+      </c>
+      <c r="F11" s="6">
+        <v>984649</v>
+      </c>
+      <c r="G11" s="6">
+        <v>3629856</v>
+      </c>
+      <c r="H11" s="6">
+        <v>571851</v>
+      </c>
+      <c r="I11" s="6">
+        <v>280193</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="B12" s="6">
+        <v>3792016</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3862107</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3535477</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3497475</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1805405</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1820880</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1959143</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1758261</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="B13" s="6">
+        <v>4650760</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2541169</v>
+      </c>
+      <c r="D13" s="6">
+        <v>245</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2387780</v>
+      </c>
+      <c r="F13" s="6">
+        <v>181</v>
+      </c>
+      <c r="G13" s="6">
+        <v>728456</v>
+      </c>
+      <c r="H13" s="6">
+        <v>431363</v>
+      </c>
+      <c r="I13" s="6">
+        <v>332129</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="B14" s="6">
+        <v>6725881</v>
+      </c>
+      <c r="C14" s="6">
+        <v>9519390</v>
+      </c>
+      <c r="D14" s="6">
+        <v>6758831</v>
+      </c>
+      <c r="E14" s="6">
+        <v>9016384</v>
+      </c>
+      <c r="F14" s="6">
+        <v>5456403</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1131220</v>
+      </c>
+      <c r="H14" s="6">
+        <v>974678</v>
+      </c>
+      <c r="I14" s="6">
+        <v>2303453</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="B15" s="6">
+        <v>6688723</v>
+      </c>
+      <c r="C15" s="6">
+        <v>9590053</v>
+      </c>
+      <c r="D15" s="6">
+        <v>5769902</v>
+      </c>
+      <c r="E15" s="6">
+        <v>145</v>
+      </c>
+      <c r="F15" s="6">
+        <v>472257</v>
+      </c>
+      <c r="G15" s="6">
+        <v>528192</v>
+      </c>
+      <c r="H15" s="6">
+        <v>376520</v>
+      </c>
+      <c r="I15" s="6">
+        <v>318706</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="B16" s="6">
+        <v>6149391</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3781498</v>
+      </c>
+      <c r="D16" s="6">
+        <v>3485778</v>
+      </c>
+      <c r="E16" s="6">
+        <v>5253897</v>
+      </c>
+      <c r="F16" s="6">
+        <v>698959</v>
+      </c>
+      <c r="G16" s="6">
+        <v>75</v>
+      </c>
+      <c r="H16" s="6">
+        <v>353006</v>
+      </c>
+      <c r="I16" s="6">
+        <v>125211</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="B17" s="6">
+        <v>3602641</v>
+      </c>
+      <c r="C17" s="6">
+        <v>199744</v>
+      </c>
+      <c r="D17" s="6">
+        <v>205712</v>
+      </c>
+      <c r="E17" s="6">
+        <v>275634</v>
+      </c>
+      <c r="F17" s="6">
+        <v>327633</v>
+      </c>
+      <c r="G17" s="6">
+        <v>10195</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1942</v>
+      </c>
+      <c r="I17" s="6">
+        <v>2139</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="B18" s="6">
+        <v>5195789</v>
+      </c>
+      <c r="C18" s="6">
+        <v>422011</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5430192</v>
+      </c>
+      <c r="E18" s="6">
+        <v>269770</v>
+      </c>
+      <c r="F18" s="6">
+        <v>8571168</v>
+      </c>
+      <c r="G18" s="6">
+        <v>5393356</v>
+      </c>
+      <c r="H18" s="6">
+        <v>5257174</v>
+      </c>
+      <c r="I18" s="6">
+        <v>5275323</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="B19" s="6">
+        <v>5222770</v>
+      </c>
+      <c r="C19" s="6">
+        <v>435130</v>
+      </c>
+      <c r="D19" s="6">
+        <v>5285261</v>
+      </c>
+      <c r="E19" s="6">
+        <v>5293489</v>
+      </c>
+      <c r="F19" s="6">
+        <v>882320</v>
+      </c>
+      <c r="G19" s="7">
+        <v>968783</v>
+      </c>
+      <c r="H19" s="6">
+        <v>5917385</v>
+      </c>
+      <c r="I19" s="6">
+        <v>532409</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="B20" s="6">
+        <v>5214815</v>
+      </c>
+      <c r="C20" s="6">
+        <v>477470</v>
+      </c>
+      <c r="D20" s="6">
+        <v>480802</v>
+      </c>
+      <c r="E20" s="6">
+        <v>461308</v>
+      </c>
+      <c r="F20" s="6">
+        <v>6500141</v>
+      </c>
+      <c r="G20" s="7">
+        <v>364991</v>
+      </c>
+      <c r="H20" s="6">
+        <v>392194</v>
+      </c>
+      <c r="I20" s="6">
+        <v>404568</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="B21" s="6">
+        <v>5221499</v>
+      </c>
+      <c r="C21" s="6">
+        <v>383353</v>
+      </c>
+      <c r="D21" s="6">
+        <v>474558</v>
+      </c>
+      <c r="E21" s="6">
+        <v>454158</v>
+      </c>
+      <c r="F21" s="6">
+        <v>446258</v>
+      </c>
+      <c r="G21" s="6">
+        <v>10987613</v>
+      </c>
+      <c r="H21" s="6">
+        <v>5673147</v>
+      </c>
+      <c r="I21" s="6">
+        <v>5736945</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="B22" s="6">
+        <v>5251684</v>
+      </c>
+      <c r="C22" s="6">
+        <v>440490</v>
+      </c>
+      <c r="D22" s="6">
+        <v>5733055</v>
+      </c>
+      <c r="E22" s="6">
+        <v>268263</v>
+      </c>
+      <c r="F22" s="6">
+        <v>325005</v>
+      </c>
+      <c r="G22" s="6">
+        <v>3809848</v>
+      </c>
+      <c r="H22" s="6">
+        <v>3539978</v>
+      </c>
+      <c r="I22" s="6">
+        <v>2616898</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="B23" s="6">
+        <v>5259103</v>
+      </c>
+      <c r="C23" s="6">
+        <v>466787</v>
+      </c>
+      <c r="D23" s="6">
+        <v>5710641</v>
+      </c>
+      <c r="E23" s="6">
+        <v>266389</v>
+      </c>
+      <c r="F23" s="6">
+        <v>327867</v>
+      </c>
+      <c r="G23" s="6">
+        <v>3420209</v>
+      </c>
+      <c r="H23" s="6">
+        <v>3250559</v>
+      </c>
+      <c r="I23" s="6">
+        <v>3791936</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="B24" s="6">
+        <v>5245638</v>
+      </c>
+      <c r="C24" s="6">
+        <v>5511826</v>
+      </c>
+      <c r="D24" s="6">
+        <v>203922</v>
+      </c>
+      <c r="E24" s="6">
+        <v>5578845</v>
+      </c>
+      <c r="F24" s="6">
+        <v>5613795</v>
+      </c>
+      <c r="G24" s="6">
+        <v>5666864</v>
+      </c>
+      <c r="H24" s="6">
+        <v>5392578</v>
+      </c>
+      <c r="I24" s="6">
+        <v>5609282</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="B25" s="6">
+        <v>5222893</v>
+      </c>
+      <c r="C25" s="6">
+        <v>5701141</v>
+      </c>
+      <c r="D25" s="6">
+        <v>206432</v>
+      </c>
+      <c r="E25" s="6">
+        <v>265261</v>
+      </c>
+      <c r="F25" s="6">
+        <v>4698904</v>
+      </c>
+      <c r="G25" s="6">
+        <v>4115696</v>
+      </c>
+      <c r="H25" s="6">
+        <v>3662885</v>
+      </c>
+      <c r="I25" s="6">
+        <v>4534354</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="B26" s="6">
+        <v>5247374</v>
+      </c>
+      <c r="C26" s="6">
+        <v>411682</v>
+      </c>
+      <c r="D26" s="6">
+        <v>5232432</v>
+      </c>
+      <c r="E26" s="6">
+        <v>5313624</v>
+      </c>
+      <c r="F26" s="6">
+        <v>328877</v>
+      </c>
+      <c r="G26" s="6">
+        <v>901229</v>
+      </c>
+      <c r="H26" s="6">
+        <v>5624799</v>
+      </c>
+      <c r="I26" s="6">
+        <v>5671876</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="B27" s="6">
+        <v>5231211</v>
+      </c>
+      <c r="C27" s="6">
+        <v>471227</v>
+      </c>
+      <c r="D27" s="6">
+        <v>6540450</v>
+      </c>
+      <c r="E27" s="6">
+        <v>6787804</v>
+      </c>
+      <c r="F27" s="6">
+        <v>2336</v>
+      </c>
+      <c r="G27" s="6">
+        <v>4883301</v>
+      </c>
+      <c r="H27" s="6">
+        <v>668393</v>
+      </c>
+      <c r="I27" s="6">
+        <v>1541793</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="B28" s="6">
+        <v>5230014</v>
+      </c>
+      <c r="C28" s="6">
+        <v>441885</v>
+      </c>
+      <c r="D28" s="6">
+        <v>475096</v>
+      </c>
+      <c r="E28" s="6">
+        <v>452690</v>
+      </c>
+      <c r="F28" s="6">
+        <v>5784608</v>
+      </c>
+      <c r="G28" s="6">
+        <v>10949777</v>
+      </c>
+      <c r="H28" s="6">
+        <v>2968397</v>
+      </c>
+      <c r="I28" s="6">
+        <v>2491745</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="B29" s="6">
+        <v>6654740</v>
+      </c>
+      <c r="C29" s="6">
+        <v>6482534</v>
+      </c>
+      <c r="D29" s="6">
+        <v>8283099</v>
+      </c>
+      <c r="E29" s="6">
+        <v>4603674</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1302441</v>
+      </c>
+      <c r="G29" s="6">
+        <v>390624</v>
+      </c>
+      <c r="H29" s="6">
+        <v>250676</v>
+      </c>
+      <c r="I29" s="6">
+        <v>164200</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="B30" s="6">
+        <v>6721549</v>
+      </c>
+      <c r="C30" s="6">
+        <v>9142805</v>
+      </c>
+      <c r="D30" s="6">
+        <v>3657088</v>
+      </c>
+      <c r="E30" s="6">
+        <v>4099466</v>
+      </c>
+      <c r="F30" s="6">
+        <v>4034462</v>
+      </c>
+      <c r="G30" s="6">
+        <v>4085858</v>
+      </c>
+      <c r="H30" s="6">
+        <v>4640774</v>
+      </c>
+      <c r="I30" s="6">
+        <v>3704649</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="B31" s="6">
+        <v>6644983</v>
+      </c>
+      <c r="C31" s="6">
+        <v>9349169</v>
+      </c>
+      <c r="D31" s="6">
+        <v>4837665</v>
+      </c>
+      <c r="E31" s="6">
+        <v>352</v>
+      </c>
+      <c r="F31" s="6">
+        <v>330</v>
+      </c>
+      <c r="G31" s="6">
+        <v>4032198</v>
+      </c>
+      <c r="H31" s="6">
+        <v>3250171</v>
+      </c>
+      <c r="I31" s="6">
+        <v>3648672</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="B32" s="7">
+        <v>6619330</v>
+      </c>
+      <c r="C32" s="7">
+        <v>207118</v>
+      </c>
+      <c r="D32" s="7">
+        <v>22126</v>
+      </c>
+      <c r="E32" s="7">
+        <v>5394062</v>
+      </c>
+      <c r="F32" s="7">
+        <v>4904156</v>
+      </c>
+      <c r="G32" s="7">
+        <v>4211687</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3106720</v>
+      </c>
+      <c r="I32" s="7">
+        <v>776818</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="B33" s="6">
+        <v>6635086</v>
+      </c>
+      <c r="C33" s="6">
+        <v>6071830</v>
+      </c>
+      <c r="D33" s="6">
+        <v>5037102</v>
+      </c>
+      <c r="E33" s="6">
+        <v>328</v>
+      </c>
+      <c r="F33" s="6">
+        <v>5999060</v>
+      </c>
+      <c r="G33" s="6">
+        <v>4259821</v>
+      </c>
+      <c r="H33" s="6">
+        <v>4014429</v>
+      </c>
+      <c r="I33" s="6">
+        <v>3984903</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="B34" s="6">
+        <v>6652441</v>
+      </c>
+      <c r="C34" s="6">
+        <v>6722470</v>
+      </c>
+      <c r="D34" s="6">
+        <v>6555153</v>
+      </c>
+      <c r="E34" s="6">
+        <v>4112756</v>
+      </c>
+      <c r="F34" s="6">
+        <v>5219077</v>
+      </c>
+      <c r="G34" s="6">
+        <v>6324828</v>
+      </c>
+      <c r="H34" s="6">
+        <v>802870</v>
+      </c>
+      <c r="I34" s="6">
+        <v>774152</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="B35" s="6">
+        <v>6656917</v>
+      </c>
+      <c r="C35" s="6">
+        <v>9002881</v>
+      </c>
+      <c r="D35" s="6">
+        <v>9632725</v>
+      </c>
+      <c r="E35" s="6">
+        <v>7810362</v>
+      </c>
+      <c r="F35" s="6">
+        <v>6012249</v>
+      </c>
+      <c r="G35" s="6">
+        <v>2923021</v>
+      </c>
+      <c r="H35" s="6">
+        <v>962741</v>
+      </c>
+      <c r="I35" s="6">
+        <v>1070428</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+      <c r="B36" s="6">
+        <v>6579167</v>
+      </c>
+      <c r="C36" s="6">
+        <v>9375598</v>
+      </c>
+      <c r="D36" s="6">
+        <v>3912551</v>
+      </c>
+      <c r="E36" s="6">
+        <v>3748765</v>
+      </c>
+      <c r="F36" s="6">
+        <v>4614069</v>
+      </c>
+      <c r="G36" s="6">
+        <v>3336465</v>
+      </c>
+      <c r="H36" s="6">
+        <v>3289507</v>
+      </c>
+      <c r="I36" s="6">
+        <v>3254236</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="B37" s="6">
+        <v>6645439</v>
+      </c>
+      <c r="C37" s="6">
+        <v>6643010</v>
+      </c>
+      <c r="D37" s="6">
+        <v>5774060</v>
+      </c>
+      <c r="E37" s="6">
+        <v>3580392</v>
+      </c>
+      <c r="F37" s="6">
+        <v>4279751</v>
+      </c>
+      <c r="G37" s="6">
+        <v>1097226</v>
+      </c>
+      <c r="H37" s="6">
+        <v>1840131</v>
+      </c>
+      <c r="I37" s="6">
+        <v>947083</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
+      <c r="B38" s="6">
+        <v>6625124</v>
+      </c>
+      <c r="C38" s="6">
+        <v>6621240</v>
+      </c>
+      <c r="D38" s="6">
+        <v>5667697</v>
+      </c>
+      <c r="E38" s="6">
+        <v>8987555</v>
+      </c>
+      <c r="F38" s="6">
+        <v>3144250</v>
+      </c>
+      <c r="G38" s="6">
+        <v>519</v>
+      </c>
+      <c r="H38" s="6">
+        <v>3302377</v>
+      </c>
+      <c r="I38" s="6">
+        <v>3737248</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="B39" s="6">
+        <v>6571878</v>
+      </c>
+      <c r="C39" s="6">
+        <v>6424347</v>
+      </c>
+      <c r="D39" s="6">
+        <v>5281711</v>
+      </c>
+      <c r="E39" s="6">
+        <v>198</v>
+      </c>
+      <c r="F39" s="6">
+        <v>201</v>
+      </c>
+      <c r="G39" s="6">
+        <v>2677151</v>
+      </c>
+      <c r="H39" s="6">
+        <v>1022400</v>
+      </c>
+      <c r="I39" s="6">
+        <v>11716</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="B40" s="6">
+        <v>6594579</v>
+      </c>
+      <c r="C40" s="6">
+        <v>6369565</v>
+      </c>
+      <c r="D40" s="6">
+        <v>7150808</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1182672</v>
+      </c>
+      <c r="F40" s="6">
+        <v>3102419</v>
+      </c>
+      <c r="G40" s="6">
+        <v>2798104</v>
+      </c>
+      <c r="H40" s="6">
+        <v>716814</v>
+      </c>
+      <c r="I40" s="6">
+        <v>812753</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
@@ -13356,242 +18608,498 @@
         <v>48</v>
       </c>
       <c r="B44" s="6">
-        <v>5370433</v>
+        <v>6420395</v>
       </c>
       <c r="C44" s="6">
-        <v>5297040</v>
+        <v>6428013</v>
       </c>
       <c r="D44" s="6">
-        <v>8774311</v>
+        <v>6331792</v>
       </c>
       <c r="E44" s="6">
-        <v>2715264</v>
+        <v>5763753</v>
       </c>
       <c r="F44" s="6">
-        <v>3432091</v>
+        <v>5168897</v>
       </c>
       <c r="G44" s="6">
-        <v>2517126</v>
+        <v>1080532</v>
       </c>
       <c r="H44" s="6">
-        <v>3260577</v>
+        <v>560450</v>
       </c>
       <c r="I44" s="6">
-        <v>1501667</v>
+        <v>530636</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
+      <c r="B45" s="6">
+        <v>4131541</v>
+      </c>
+      <c r="C45" s="6">
+        <v>4132086</v>
+      </c>
+      <c r="D45" s="6">
+        <v>4123427</v>
+      </c>
+      <c r="E45" s="6">
+        <v>7039119</v>
+      </c>
+      <c r="F45" s="6">
+        <v>778457</v>
+      </c>
+      <c r="G45" s="6">
+        <v>770558</v>
+      </c>
+      <c r="H45" s="6">
+        <v>358720</v>
+      </c>
+      <c r="I45" s="6">
+        <v>242275</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
+      <c r="B46" s="6">
+        <v>3777312</v>
+      </c>
+      <c r="C46" s="6">
+        <v>5715478</v>
+      </c>
+      <c r="D46" s="6">
+        <v>7880327</v>
+      </c>
+      <c r="E46" s="6">
+        <v>675440</v>
+      </c>
+      <c r="F46" s="6">
+        <v>843990</v>
+      </c>
+      <c r="G46" s="6">
+        <v>2513860</v>
+      </c>
+      <c r="H46" s="6">
+        <v>2713489</v>
+      </c>
+      <c r="I46" s="6">
+        <v>618016</v>
+      </c>
     </row>
     <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
+      <c r="B47" s="6">
+        <v>6162726</v>
+      </c>
+      <c r="C47" s="6">
+        <v>6014086</v>
+      </c>
+      <c r="D47" s="6">
+        <v>271</v>
+      </c>
+      <c r="E47" s="6">
+        <v>258</v>
+      </c>
+      <c r="F47" s="6">
+        <v>170</v>
+      </c>
+      <c r="G47" s="6">
+        <v>206</v>
+      </c>
+      <c r="H47" s="6">
+        <v>227</v>
+      </c>
+      <c r="I47" s="6">
+        <v>395</v>
+      </c>
     </row>
     <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
+      <c r="B48" s="6">
+        <v>5968042</v>
+      </c>
+      <c r="C48" s="6">
+        <v>5954735</v>
+      </c>
+      <c r="D48" s="6">
+        <v>5282587</v>
+      </c>
+      <c r="E48" s="6">
+        <v>3182700</v>
+      </c>
+      <c r="F48" s="6">
+        <v>2955640</v>
+      </c>
+      <c r="G48" s="6">
+        <v>2784365</v>
+      </c>
+      <c r="H48" s="6">
+        <v>2246942</v>
+      </c>
+      <c r="I48" s="6">
+        <v>2069124</v>
+      </c>
     </row>
     <row r="49" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
+      <c r="B49" s="6">
+        <v>3641562</v>
+      </c>
+      <c r="C49" s="6">
+        <v>3651537</v>
+      </c>
+      <c r="D49" s="6">
+        <v>3570857</v>
+      </c>
+      <c r="E49" s="6">
+        <v>3391114</v>
+      </c>
+      <c r="F49" s="6">
+        <v>511910</v>
+      </c>
+      <c r="G49" s="6">
+        <v>233862</v>
+      </c>
+      <c r="H49" s="6">
+        <v>220927</v>
+      </c>
+      <c r="I49" s="6">
+        <v>88722</v>
+      </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
+      <c r="B50" s="6">
+        <v>4514791</v>
+      </c>
+      <c r="C50" s="6">
+        <v>3027579</v>
+      </c>
+      <c r="D50" s="6">
+        <v>3194056</v>
+      </c>
+      <c r="E50" s="6">
+        <v>672637</v>
+      </c>
+      <c r="F50" s="6">
+        <v>575922</v>
+      </c>
+      <c r="G50" s="6">
+        <v>388323</v>
+      </c>
+      <c r="H50" s="6">
+        <v>274385</v>
+      </c>
+      <c r="I50" s="6">
+        <v>196157</v>
+      </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
+      <c r="B51" s="6">
+        <v>5595751</v>
+      </c>
+      <c r="C51" s="6">
+        <v>8315237</v>
+      </c>
+      <c r="D51" s="6">
+        <v>5599226</v>
+      </c>
+      <c r="E51" s="6">
+        <v>2307169</v>
+      </c>
+      <c r="F51" s="6">
+        <v>760</v>
+      </c>
+      <c r="G51" s="6">
+        <v>735</v>
+      </c>
+      <c r="H51" s="6">
+        <v>668</v>
+      </c>
+      <c r="I51" s="6">
+        <v>913</v>
+      </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
+      <c r="B52" s="6">
+        <v>3840929</v>
+      </c>
+      <c r="C52" s="6">
+        <v>3863248</v>
+      </c>
+      <c r="D52" s="6">
+        <v>290288</v>
+      </c>
+      <c r="E52" s="6">
+        <v>638674</v>
+      </c>
+      <c r="F52" s="6">
+        <v>137574</v>
+      </c>
+      <c r="G52" s="6">
+        <v>559834</v>
+      </c>
+      <c r="H52" s="6">
+        <v>402464</v>
+      </c>
+      <c r="I52" s="6">
+        <v>117105</v>
+      </c>
       <c r="L52" s="1"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
+      <c r="B53" s="6">
+        <v>5270424</v>
+      </c>
+      <c r="C53" s="6">
+        <v>5218742</v>
+      </c>
+      <c r="D53" s="6">
+        <v>5089990</v>
+      </c>
+      <c r="E53" s="6">
+        <v>4544963</v>
+      </c>
+      <c r="F53" s="6">
+        <v>622871</v>
+      </c>
+      <c r="G53" s="6">
+        <v>597963</v>
+      </c>
+      <c r="H53" s="6">
+        <v>582804</v>
+      </c>
+      <c r="I53" s="6">
+        <v>552136</v>
+      </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
+      <c r="B54" s="6">
+        <v>5271460</v>
+      </c>
+      <c r="C54" s="6">
+        <v>4841870</v>
+      </c>
+      <c r="D54" s="6">
+        <v>4246007</v>
+      </c>
+      <c r="E54" s="6">
+        <v>359262</v>
+      </c>
+      <c r="F54" s="6">
+        <v>650188</v>
+      </c>
+      <c r="G54" s="6">
+        <v>408003</v>
+      </c>
+      <c r="H54" s="6">
+        <v>390455</v>
+      </c>
+      <c r="I54" s="6">
+        <v>25495</v>
+      </c>
     </row>
     <row r="55" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
+      <c r="B55" s="6">
+        <v>4609420</v>
+      </c>
+      <c r="C55" s="6">
+        <v>4600459</v>
+      </c>
+      <c r="D55" s="6">
+        <v>680305</v>
+      </c>
+      <c r="E55" s="6">
+        <v>608329</v>
+      </c>
+      <c r="F55" s="6">
+        <v>714515</v>
+      </c>
+      <c r="G55" s="6">
+        <v>632506</v>
+      </c>
+      <c r="H55" s="6">
+        <v>579410</v>
+      </c>
+      <c r="I55" s="6">
+        <v>111330</v>
+      </c>
     </row>
     <row r="56" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
+      <c r="B56" s="6">
+        <v>5255759</v>
+      </c>
+      <c r="C56" s="6">
+        <v>466450</v>
+      </c>
+      <c r="D56" s="6">
+        <v>2061728</v>
+      </c>
+      <c r="E56" s="6">
+        <v>827233</v>
+      </c>
+      <c r="F56" s="6">
+        <v>12144</v>
+      </c>
+      <c r="G56" s="6">
+        <v>4959</v>
+      </c>
+      <c r="H56" s="6">
+        <v>4836</v>
+      </c>
+      <c r="I56" s="6">
+        <v>4900</v>
+      </c>
       <c r="L56" s="5"/>
     </row>
     <row r="57" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
+      <c r="B57" s="6">
+        <v>9820653</v>
+      </c>
+      <c r="C57" s="6">
+        <v>9810487</v>
+      </c>
+      <c r="D57" s="6">
+        <v>9633192</v>
+      </c>
+      <c r="E57" s="6">
+        <v>9590972</v>
+      </c>
+      <c r="F57" s="6">
+        <v>1993514</v>
+      </c>
+      <c r="G57" s="6">
+        <v>838781</v>
+      </c>
+      <c r="H57" s="6">
+        <v>568575</v>
+      </c>
+      <c r="I57" s="6">
+        <v>488970</v>
+      </c>
       <c r="L57" s="5"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
+      <c r="B58" s="6">
+        <v>9925220</v>
+      </c>
+      <c r="C58" s="6">
+        <v>7064321</v>
+      </c>
+      <c r="D58" s="6">
+        <v>4716411</v>
+      </c>
+      <c r="E58" s="6">
+        <v>6698997</v>
+      </c>
+      <c r="F58" s="6">
+        <v>5302280</v>
+      </c>
+      <c r="G58" s="6">
+        <v>5182971</v>
+      </c>
+      <c r="H58" s="6">
+        <v>536668</v>
+      </c>
+      <c r="I58" s="6">
+        <v>591522</v>
+      </c>
       <c r="L58" s="1"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
+      <c r="B59" s="6">
+        <v>13837625</v>
+      </c>
+      <c r="C59" s="6">
+        <v>911</v>
+      </c>
+      <c r="D59" s="6">
+        <v>15446861</v>
+      </c>
+      <c r="E59" s="6">
+        <v>2622</v>
+      </c>
+      <c r="F59" s="6">
+        <v>3828</v>
+      </c>
+      <c r="G59" s="6">
+        <v>5851</v>
+      </c>
+      <c r="H59" s="6">
+        <v>6242</v>
+      </c>
+      <c r="I59" s="6">
+        <v>12069</v>
+      </c>
       <c r="L59" s="1"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
+      <c r="B60" s="6">
+        <v>11166068</v>
+      </c>
+      <c r="C60" s="6">
+        <v>10576123</v>
+      </c>
+      <c r="D60" s="6">
+        <v>10481315</v>
+      </c>
+      <c r="E60" s="6">
+        <v>9482203</v>
+      </c>
+      <c r="F60" s="6">
+        <v>9122549</v>
+      </c>
+      <c r="G60" s="6">
+        <v>8101630</v>
+      </c>
+      <c r="H60" s="6">
+        <v>6432508</v>
+      </c>
+      <c r="I60" s="6">
+        <v>4113931</v>
+      </c>
       <c r="L60" s="1"/>
       <c r="O60" s="2"/>
     </row>
@@ -13599,14 +19107,30 @@
       <c r="A61" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
+      <c r="B61" s="6">
+        <v>10900929</v>
+      </c>
+      <c r="C61" s="6">
+        <v>8911931</v>
+      </c>
+      <c r="D61" s="6">
+        <v>7073833</v>
+      </c>
+      <c r="E61" s="6">
+        <v>6665472</v>
+      </c>
+      <c r="F61" s="6">
+        <v>6009087</v>
+      </c>
+      <c r="G61" s="6">
+        <v>7053252</v>
+      </c>
+      <c r="H61" s="6">
+        <v>5300327</v>
+      </c>
+      <c r="I61" s="6">
+        <v>6718185</v>
+      </c>
       <c r="L61" s="1"/>
       <c r="O61" s="2"/>
     </row>
@@ -13614,68 +19138,148 @@
       <c r="A62" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
+      <c r="B62" s="6">
+        <v>10807934</v>
+      </c>
+      <c r="C62" s="6">
+        <v>7820766</v>
+      </c>
+      <c r="D62" s="6">
+        <v>7048050</v>
+      </c>
+      <c r="E62" s="6">
+        <v>7048187</v>
+      </c>
+      <c r="F62" s="6">
+        <v>6963445</v>
+      </c>
+      <c r="G62" s="6">
+        <v>6990183</v>
+      </c>
+      <c r="H62" s="6">
+        <v>2448148</v>
+      </c>
+      <c r="I62" s="6">
+        <v>521093</v>
+      </c>
     </row>
     <row r="63" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
+      <c r="B63" s="6">
+        <v>10921747</v>
+      </c>
+      <c r="C63" s="6">
+        <v>10871579</v>
+      </c>
+      <c r="D63" s="6">
+        <v>10946795</v>
+      </c>
+      <c r="E63" s="6">
+        <v>6946409</v>
+      </c>
+      <c r="F63" s="6">
+        <v>6528060</v>
+      </c>
+      <c r="G63" s="6">
+        <v>5610840</v>
+      </c>
+      <c r="H63" s="6">
+        <v>5412070</v>
+      </c>
+      <c r="I63" s="6">
+        <v>4476286</v>
+      </c>
       <c r="L63" s="5"/>
     </row>
     <row r="64" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
+      <c r="B64" s="6">
+        <v>10645278</v>
+      </c>
+      <c r="C64" s="6">
+        <v>7998901</v>
+      </c>
+      <c r="D64" s="6">
+        <v>7068836</v>
+      </c>
+      <c r="E64" s="6">
+        <v>7034237</v>
+      </c>
+      <c r="F64" s="6">
+        <v>7124322</v>
+      </c>
+      <c r="G64" s="6">
+        <v>2583157</v>
+      </c>
+      <c r="H64" s="6">
+        <v>3560678</v>
+      </c>
+      <c r="I64" s="6">
+        <v>522261</v>
+      </c>
     </row>
     <row r="65" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
+      <c r="B65" s="6">
+        <v>9768659</v>
+      </c>
+      <c r="C65" s="6">
+        <v>7137218</v>
+      </c>
+      <c r="D65" s="6">
+        <v>4743001</v>
+      </c>
+      <c r="E65" s="6">
+        <v>4669603</v>
+      </c>
+      <c r="F65" s="6">
+        <v>5195464</v>
+      </c>
+      <c r="G65" s="6">
+        <v>598018</v>
+      </c>
+      <c r="H65" s="6">
+        <v>602782</v>
+      </c>
+      <c r="I65" s="6">
+        <v>589159</v>
+      </c>
       <c r="L65" s="5"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>73</v>
       </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
+      <c r="B66" s="6">
+        <v>14132767</v>
+      </c>
+      <c r="C66" s="6">
+        <v>7772305</v>
+      </c>
+      <c r="D66" s="6">
+        <v>7839617</v>
+      </c>
+      <c r="E66" s="6">
+        <v>8051534</v>
+      </c>
+      <c r="F66" s="6">
+        <v>690476</v>
+      </c>
+      <c r="G66" s="6">
+        <v>3178090</v>
+      </c>
+      <c r="H66" s="6">
+        <v>89164</v>
+      </c>
+      <c r="I66" s="6">
+        <v>86121</v>
+      </c>
       <c r="L66" s="1"/>
       <c r="O66" s="2"/>
     </row>
@@ -13683,14 +19287,30 @@
       <c r="A67" t="s">
         <v>74</v>
       </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
+      <c r="B67" s="6">
+        <v>10886606</v>
+      </c>
+      <c r="C67" s="6">
+        <v>8893814</v>
+      </c>
+      <c r="D67" s="6">
+        <v>7299574</v>
+      </c>
+      <c r="E67" s="6">
+        <v>3296391</v>
+      </c>
+      <c r="F67" s="6">
+        <v>526503</v>
+      </c>
+      <c r="G67" s="6">
+        <v>528888</v>
+      </c>
+      <c r="H67" s="6">
+        <v>2005758</v>
+      </c>
+      <c r="I67" s="6">
+        <v>382026</v>
+      </c>
       <c r="L67" s="1"/>
       <c r="O67" s="2"/>
     </row>
@@ -13698,14 +19318,30 @@
       <c r="A68" t="s">
         <v>75</v>
       </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
+      <c r="B68" s="6">
+        <v>6573446</v>
+      </c>
+      <c r="C68" s="6">
+        <v>6674608</v>
+      </c>
+      <c r="D68" s="6">
+        <v>6363900</v>
+      </c>
+      <c r="E68" s="6">
+        <v>350426</v>
+      </c>
+      <c r="F68" s="6">
+        <v>130032</v>
+      </c>
+      <c r="G68" s="6">
+        <v>164227</v>
+      </c>
+      <c r="H68" s="6">
+        <v>187076</v>
+      </c>
+      <c r="I68" s="6">
+        <v>169410</v>
+      </c>
       <c r="L68" s="1"/>
       <c r="O68" s="2"/>
     </row>
@@ -13713,14 +19349,30 @@
       <c r="A69" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
+      <c r="B69" s="6">
+        <v>5525693</v>
+      </c>
+      <c r="C69" s="6">
+        <v>5545014</v>
+      </c>
+      <c r="D69" s="6">
+        <v>7159367</v>
+      </c>
+      <c r="E69" s="6">
+        <v>5537071</v>
+      </c>
+      <c r="F69" s="6">
+        <v>3262379</v>
+      </c>
+      <c r="G69" s="6">
+        <v>3024722</v>
+      </c>
+      <c r="H69" s="6">
+        <v>1199137</v>
+      </c>
+      <c r="I69" s="6">
+        <v>594478</v>
+      </c>
       <c r="L69" s="1"/>
       <c r="O69" s="2"/>
     </row>
@@ -13728,67 +19380,147 @@
       <c r="A70" t="s">
         <v>77</v>
       </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
+      <c r="B70" s="6">
+        <v>5733843</v>
+      </c>
+      <c r="C70" s="6">
+        <v>5663894</v>
+      </c>
+      <c r="D70" s="6">
+        <v>1344741</v>
+      </c>
+      <c r="E70" s="6">
+        <v>4896612</v>
+      </c>
+      <c r="F70" s="6">
+        <v>4124843</v>
+      </c>
+      <c r="G70" s="6">
+        <v>126511</v>
+      </c>
+      <c r="H70" s="6">
+        <v>168925</v>
+      </c>
+      <c r="I70" s="6">
+        <v>175499</v>
+      </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>78</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
+      <c r="B71" s="7">
+        <v>7230003</v>
+      </c>
+      <c r="C71" s="7">
+        <v>88</v>
+      </c>
+      <c r="D71" s="7">
+        <v>156</v>
+      </c>
+      <c r="E71" s="7">
+        <v>166</v>
+      </c>
+      <c r="F71" s="7">
+        <v>1207</v>
+      </c>
+      <c r="G71" s="7">
+        <v>1552</v>
+      </c>
+      <c r="H71" s="7">
+        <v>1853</v>
+      </c>
+      <c r="I71" s="7">
+        <v>3612</v>
+      </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>85</v>
       </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
+      <c r="B72" s="6">
+        <v>6041262</v>
+      </c>
+      <c r="C72" s="6">
+        <v>6085560</v>
+      </c>
+      <c r="D72" s="6">
+        <v>6116850</v>
+      </c>
+      <c r="E72" s="6">
+        <v>6277617</v>
+      </c>
+      <c r="F72" s="6">
+        <v>3640814</v>
+      </c>
+      <c r="G72" s="6">
+        <v>742</v>
+      </c>
+      <c r="H72" s="6">
+        <v>821</v>
+      </c>
+      <c r="I72" s="6">
+        <v>941</v>
+      </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>86</v>
       </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
+      <c r="B73" s="6">
+        <v>5769282</v>
+      </c>
+      <c r="C73" s="6">
+        <v>6117687</v>
+      </c>
+      <c r="D73" s="6">
+        <v>2561482</v>
+      </c>
+      <c r="E73" s="6">
+        <v>548061</v>
+      </c>
+      <c r="F73" s="6">
+        <v>117772</v>
+      </c>
+      <c r="G73" s="6">
+        <v>33146</v>
+      </c>
+      <c r="H73" s="6">
+        <v>26915</v>
+      </c>
+      <c r="I73" s="6">
+        <v>25593</v>
+      </c>
       <c r="L73" s="1"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
+      <c r="B74" s="6">
+        <v>5803989</v>
+      </c>
+      <c r="C74" s="6">
+        <v>5547221</v>
+      </c>
+      <c r="D74" s="6">
+        <v>5711971</v>
+      </c>
+      <c r="E74" s="6">
+        <v>2424589</v>
+      </c>
+      <c r="F74" s="6">
+        <v>2453659</v>
+      </c>
+      <c r="G74" s="6">
+        <v>1342904</v>
+      </c>
+      <c r="H74" s="6">
+        <v>855567</v>
+      </c>
+      <c r="I74" s="6">
+        <v>40917</v>
+      </c>
       <c r="L74" s="1"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -13796,15 +19528,29 @@
         <v>80</v>
       </c>
       <c r="B75" s="6">
-        <v>12189746</v>
-      </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
+        <v>5910556</v>
+      </c>
+      <c r="C75" s="6">
+        <v>9057948</v>
+      </c>
+      <c r="D75" s="6">
+        <v>5853988</v>
+      </c>
+      <c r="E75" s="6">
+        <v>5386819</v>
+      </c>
+      <c r="F75" s="6">
+        <v>6011715</v>
+      </c>
+      <c r="G75" s="6">
+        <v>3793085</v>
+      </c>
+      <c r="H75" s="6">
+        <v>2632658</v>
+      </c>
+      <c r="I75" s="6">
+        <v>1850085</v>
+      </c>
       <c r="L75" s="1"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -13812,15 +19558,29 @@
         <v>81</v>
       </c>
       <c r="B76" s="6">
-        <v>9789733</v>
-      </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
+        <v>5889492</v>
+      </c>
+      <c r="C76" s="6">
+        <v>5846271</v>
+      </c>
+      <c r="D76" s="6">
+        <v>6083834</v>
+      </c>
+      <c r="E76" s="6">
+        <v>8424789</v>
+      </c>
+      <c r="F76" s="6">
+        <v>6288327</v>
+      </c>
+      <c r="G76" s="6">
+        <v>552034</v>
+      </c>
+      <c r="H76" s="6">
+        <v>36653</v>
+      </c>
+      <c r="I76" s="6">
+        <v>35585</v>
+      </c>
       <c r="L76" s="1"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -13828,15 +19588,29 @@
         <v>82</v>
       </c>
       <c r="B77" s="6">
-        <v>403</v>
-      </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
+        <v>5613775</v>
+      </c>
+      <c r="C77" s="6">
+        <v>7319535</v>
+      </c>
+      <c r="D77" s="6">
+        <v>8477921</v>
+      </c>
+      <c r="E77" s="6">
+        <v>5178237</v>
+      </c>
+      <c r="F77" s="6">
+        <v>821608</v>
+      </c>
+      <c r="G77" s="6">
+        <v>468165</v>
+      </c>
+      <c r="H77" s="6">
+        <v>1861225</v>
+      </c>
+      <c r="I77" s="6">
+        <v>847179</v>
+      </c>
       <c r="L77" s="1"/>
       <c r="O77" s="2"/>
     </row>
@@ -13845,15 +19619,29 @@
         <v>83</v>
       </c>
       <c r="B78" s="6">
-        <v>10960459</v>
-      </c>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
+        <v>7181724</v>
+      </c>
+      <c r="C78" s="6">
+        <v>7435663</v>
+      </c>
+      <c r="D78" s="6">
+        <v>9249189</v>
+      </c>
+      <c r="E78" s="6">
+        <v>573009</v>
+      </c>
+      <c r="F78" s="6">
+        <v>56964</v>
+      </c>
+      <c r="G78" s="6">
+        <v>17632</v>
+      </c>
+      <c r="H78" s="6">
+        <v>11121</v>
+      </c>
+      <c r="I78" s="6">
+        <v>7703</v>
+      </c>
       <c r="L78" s="1"/>
       <c r="O78" s="2"/>
     </row>
@@ -13862,21 +19650,33 @@
         <v>84</v>
       </c>
       <c r="B79" s="6">
-        <v>10916108</v>
-      </c>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
+        <v>6183697</v>
+      </c>
+      <c r="C79" s="6">
+        <v>6095797</v>
+      </c>
+      <c r="D79" s="6">
+        <v>8473401</v>
+      </c>
+      <c r="E79" s="6">
+        <v>8908438</v>
+      </c>
+      <c r="F79" s="6">
+        <v>5535965</v>
+      </c>
+      <c r="G79" s="6">
+        <v>607200</v>
+      </c>
+      <c r="H79" s="6">
+        <v>31081</v>
+      </c>
+      <c r="I79" s="6">
+        <v>27158</v>
+      </c>
       <c r="L79" s="1"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B80" s="6">
-        <v>10733900</v>
-      </c>
+      <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
@@ -13886,15 +19686,9 @@
       <c r="I80" s="6"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B81">
-        <v>10946347</v>
-      </c>
       <c r="L81" s="1"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B82">
-        <v>10991313</v>
-      </c>
       <c r="L82" s="1"/>
       <c r="O82" s="2"/>
     </row>
@@ -13939,7 +19733,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="B85" s="7">
         <v>5501685</v>
@@ -13968,7 +19762,7 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="B86" s="6">
         <v>12235323</v>
@@ -13997,16 +19791,32 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="B87" s="6">
+        <v>6540083</v>
+      </c>
+      <c r="C87" s="6">
+        <v>8596275</v>
+      </c>
+      <c r="D87" s="6">
+        <v>9282620</v>
+      </c>
+      <c r="E87" s="6">
+        <v>1802632</v>
+      </c>
+      <c r="F87" s="6">
+        <v>1754216</v>
+      </c>
+      <c r="G87" s="6">
+        <v>2182642</v>
+      </c>
+      <c r="H87" s="6">
+        <v>2139172</v>
+      </c>
+      <c r="I87">
+        <v>1652900</v>
+      </c>
       <c r="L87" s="1"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
@@ -14066,7 +19876,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -14080,7 +19890,7 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="B94" s="6">
         <v>3625523</v>
@@ -14111,7 +19921,7 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
@@ -14172,7 +19982,7 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="B101" s="7">
         <v>2018105</v>
@@ -14202,7 +20012,7 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="B102" s="6">
         <v>5918955</v>
@@ -14233,16 +20043,32 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="B103" s="6">
+        <v>5036935</v>
+      </c>
+      <c r="C103" s="6">
+        <v>3095347</v>
+      </c>
+      <c r="D103" s="6">
+        <v>3518946</v>
+      </c>
+      <c r="E103" s="6">
+        <v>3060646</v>
+      </c>
+      <c r="F103" s="6">
+        <v>3467802</v>
+      </c>
+      <c r="G103" s="6">
+        <v>3138183</v>
+      </c>
+      <c r="H103" s="6">
+        <v>3557732</v>
+      </c>
+      <c r="I103">
+        <v>4168311</v>
+      </c>
       <c r="L103" s="1"/>
       <c r="O103" s="2"/>
     </row>
